--- a/Project ADUsers Batch Creation/BNPHN/GP Portal Practice List 20190705.xlsx
+++ b/Project ADUsers Batch Creation/BNPHN/GP Portal Practice List 20190705.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rajendraj\Desktop\Attachments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mj\Documents\GitHub\ActiveDirectory-Powershell\Project ADUsers Batch Creation\BNPHN\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1852,12 +1852,6 @@
     <t>WarnerLakesFP</t>
   </si>
   <si>
-    <t>First Name</t>
-  </si>
-  <si>
-    <t>Last Name</t>
-  </si>
-  <si>
     <t>Clinic</t>
   </si>
   <si>
@@ -2390,6 +2384,12 @@
   </si>
   <si>
     <t xml:space="preserve">Woody Point </t>
+  </si>
+  <si>
+    <t>GivenName</t>
+  </si>
+  <si>
+    <t>LastName</t>
   </si>
 </sst>
 </file>
@@ -2858,9 +2858,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G149"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2874,11 +2872,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
-        <v>604</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>605</v>
+      <c r="A1" t="s">
+        <v>782</v>
+      </c>
+      <c r="B1" t="s">
+        <v>783</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>1</v>
@@ -2898,10 +2896,10 @@
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>6</v>
@@ -2921,10 +2919,10 @@
     </row>
     <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>11</v>
@@ -2944,10 +2942,10 @@
     </row>
     <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>15</v>
@@ -2967,10 +2965,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>19</v>
@@ -2990,10 +2988,10 @@
     </row>
     <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>24</v>
@@ -3013,10 +3011,10 @@
     </row>
     <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>29</v>
@@ -3036,10 +3034,10 @@
     </row>
     <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>34</v>
@@ -3059,10 +3057,10 @@
     </row>
     <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>38</v>
@@ -3082,10 +3080,10 @@
     </row>
     <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>564</v>
@@ -3105,10 +3103,10 @@
     </row>
     <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>46</v>
@@ -3128,10 +3126,10 @@
     </row>
     <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>51</v>
@@ -3151,10 +3149,10 @@
     </row>
     <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>55</v>
@@ -3172,12 +3170,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>59</v>
@@ -3197,10 +3195,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>65</v>
@@ -3218,12 +3216,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>69</v>
@@ -3241,12 +3239,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>73</v>
@@ -3264,12 +3262,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>77</v>
@@ -3287,12 +3285,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>81</v>
@@ -3312,10 +3310,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>565</v>
@@ -3333,12 +3331,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>88</v>
@@ -3356,12 +3354,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>92</v>
@@ -3379,12 +3377,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>566</v>
@@ -3404,10 +3402,10 @@
     </row>
     <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>99</v>
@@ -3425,12 +3423,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>103</v>
@@ -3448,12 +3446,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>567</v>
@@ -3471,12 +3469,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>110</v>
@@ -3494,12 +3492,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>114</v>
@@ -3517,12 +3515,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>118</v>
@@ -3542,10 +3540,10 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>568</v>
@@ -3563,12 +3561,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>63</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>569</v>
@@ -3588,10 +3586,10 @@
     </row>
     <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>128</v>
@@ -3609,12 +3607,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>132</v>
@@ -3632,9 +3630,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B34" s="5">
         <v>30</v>
@@ -3657,10 +3655,10 @@
     </row>
     <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>140</v>
@@ -3678,12 +3676,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>144</v>
@@ -3701,12 +3699,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>570</v>
@@ -3724,12 +3722,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>571</v>
@@ -3747,12 +3745,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>572</v>
@@ -3770,12 +3768,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>157</v>
@@ -3793,12 +3791,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>161</v>
@@ -3816,12 +3814,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>165</v>
@@ -3839,12 +3837,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>169</v>
@@ -3862,12 +3860,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>173</v>
@@ -3887,10 +3885,10 @@
     </row>
     <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>573</v>
@@ -3910,10 +3908,10 @@
     </row>
     <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>180</v>
@@ -3931,12 +3929,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>184</v>
@@ -3956,10 +3954,10 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>188</v>
@@ -3977,12 +3975,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>192</v>
@@ -4000,12 +3998,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>196</v>
@@ -4023,12 +4021,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>200</v>
@@ -4048,10 +4046,10 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>204</v>
@@ -4071,10 +4069,10 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>574</v>
@@ -4092,12 +4090,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>211</v>
@@ -4115,12 +4113,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>575</v>
@@ -4138,12 +4136,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>218</v>
@@ -4161,12 +4159,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>222</v>
@@ -4186,10 +4184,10 @@
     </row>
     <row r="58" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>226</v>
@@ -4207,12 +4205,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>576</v>
@@ -4232,10 +4230,10 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>577</v>
@@ -4255,10 +4253,10 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>236</v>
@@ -4278,10 +4276,10 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>240</v>
@@ -4301,10 +4299,10 @@
     </row>
     <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>244</v>
@@ -4324,10 +4322,10 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>248</v>
@@ -4347,10 +4345,10 @@
     </row>
     <row r="65" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>252</v>
@@ -4370,10 +4368,10 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>256</v>
@@ -4393,10 +4391,10 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>260</v>
@@ -4416,10 +4414,10 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>578</v>
@@ -4439,10 +4437,10 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>266</v>
@@ -4462,10 +4460,10 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>270</v>
@@ -4485,10 +4483,10 @@
     </row>
     <row r="71" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>274</v>
@@ -4508,10 +4506,10 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>278</v>
@@ -4531,10 +4529,10 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>282</v>
@@ -4554,10 +4552,10 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>286</v>
@@ -4577,10 +4575,10 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>579</v>
@@ -4600,10 +4598,10 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>293</v>
@@ -4623,10 +4621,10 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>297</v>
@@ -4646,10 +4644,10 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>301</v>
@@ -4669,10 +4667,10 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>305</v>
@@ -4692,10 +4690,10 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>580</v>
@@ -4715,10 +4713,10 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>312</v>
@@ -4738,10 +4736,10 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>581</v>
@@ -4761,10 +4759,10 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>319</v>
@@ -4784,10 +4782,10 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>582</v>
@@ -4807,10 +4805,10 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>583</v>
@@ -4830,10 +4828,10 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>584</v>
@@ -4853,10 +4851,10 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>332</v>
@@ -4876,10 +4874,10 @@
     </row>
     <row r="88" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>585</v>
@@ -4899,10 +4897,10 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>339</v>
@@ -4922,10 +4920,10 @@
     </row>
     <row r="90" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>586</v>
@@ -4945,10 +4943,10 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
+        <v>726</v>
+      </c>
+      <c r="B91" s="5" t="s">
         <v>728</v>
-      </c>
-      <c r="B91" s="5" t="s">
-        <v>730</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>346</v>
@@ -4968,10 +4966,10 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>350</v>
@@ -4991,7 +4989,7 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B93" s="5" t="s">
         <v>32</v>
@@ -5014,10 +5012,10 @@
     </row>
     <row r="94" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>358</v>
@@ -5037,10 +5035,10 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>362</v>
@@ -5060,10 +5058,10 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>366</v>
@@ -5083,10 +5081,10 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>370</v>
@@ -5106,10 +5104,10 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>587</v>
@@ -5129,10 +5127,10 @@
     </row>
     <row r="99" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>588</v>
@@ -5152,10 +5150,10 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>589</v>
@@ -5175,10 +5173,10 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>383</v>
@@ -5198,10 +5196,10 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>387</v>
@@ -5221,10 +5219,10 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>391</v>
@@ -5244,10 +5242,10 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>395</v>
@@ -5267,10 +5265,10 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>399</v>
@@ -5290,10 +5288,10 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>403</v>
@@ -5313,10 +5311,10 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>407</v>
@@ -5336,10 +5334,10 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>411</v>
@@ -5359,10 +5357,10 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>415</v>
@@ -5382,10 +5380,10 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>590</v>
@@ -5405,10 +5403,10 @@
     </row>
     <row r="111" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>591</v>
@@ -5428,10 +5426,10 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>425</v>
@@ -5451,10 +5449,10 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>592</v>
@@ -5474,10 +5472,10 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>432</v>
@@ -5497,10 +5495,10 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>593</v>
@@ -5520,10 +5518,10 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>594</v>
@@ -5543,10 +5541,10 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>442</v>
@@ -5566,10 +5564,10 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>446</v>
@@ -5589,10 +5587,10 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>450</v>
@@ -5612,10 +5610,10 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>454</v>
@@ -5635,10 +5633,10 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>595</v>
@@ -5658,10 +5656,10 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="B122" s="5" t="s">
         <v>755</v>
-      </c>
-      <c r="B122" s="5" t="s">
-        <v>757</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>598</v>
@@ -5681,10 +5679,10 @@
     </row>
     <row r="123" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>464</v>
@@ -5704,10 +5702,10 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>468</v>
@@ -5727,10 +5725,10 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>596</v>
@@ -5750,10 +5748,10 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>597</v>
@@ -5773,10 +5771,10 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>478</v>
@@ -5796,10 +5794,10 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>599</v>
@@ -5819,10 +5817,10 @@
     </row>
     <row r="129" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
+        <v>763</v>
+      </c>
+      <c r="B129" s="5" t="s">
         <v>765</v>
-      </c>
-      <c r="B129" s="5" t="s">
-        <v>767</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>485</v>
@@ -5842,10 +5840,10 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>489</v>
@@ -5865,10 +5863,10 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>493</v>
@@ -5888,10 +5886,10 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>600</v>
@@ -5911,10 +5909,10 @@
     </row>
     <row r="133" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>500</v>
@@ -5934,10 +5932,10 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>504</v>
@@ -5957,10 +5955,10 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>601</v>
@@ -5980,10 +5978,10 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>511</v>
@@ -6003,10 +6001,10 @@
     </row>
     <row r="137" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>515</v>
@@ -6026,10 +6024,10 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>519</v>
@@ -6049,10 +6047,10 @@
     </row>
     <row r="139" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B139" s="9" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>523</v>
@@ -6072,10 +6070,10 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B140" s="9" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>602</v>
@@ -6095,10 +6093,10 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>530</v>
@@ -6118,10 +6116,10 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>534</v>
@@ -6141,10 +6139,10 @@
     </row>
     <row r="143" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>603</v>
@@ -6164,10 +6162,10 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>541</v>
@@ -6187,10 +6185,10 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>545</v>
@@ -6210,10 +6208,10 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>549</v>
@@ -6233,10 +6231,10 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>553</v>
@@ -6256,10 +6254,10 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>557</v>
@@ -6279,10 +6277,10 @@
     </row>
     <row r="149" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>561</v>
@@ -7256,15 +7254,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DE65041F4208234EAE5DEAB70F41B41A" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2928f594c619e123f652be2f4dcd6c36">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="667a265b-1647-4a4c-8ce5-35b18b48bec1" xmlns:ns3="8d027909-a72e-4cba-b0d7-b9fc850e636e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="89aa245b4c4885ef9e2ec51d81ba32dd" ns2:_="" ns3:_="">
     <xsd:import namespace="667a265b-1647-4a4c-8ce5-35b18b48bec1"/>
@@ -7467,6 +7456,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -7474,14 +7472,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5728D956-A791-46E0-B8AC-CF77334FD7FB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0ED2D14C-3141-4C78-A2E2-3591B8F02DA5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7496,6 +7486,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5728D956-A791-46E0-B8AC-CF77334FD7FB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
